--- a/DateBase/orders/Nha Thu_2026-2-11.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-11.xlsx
@@ -617,7 +617,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-2-11.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-11.xlsx
@@ -619,6 +619,9 @@
       <c r="A21" t="str">
         <v>11</v>
       </c>
+      <c r="C21" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2026-2-11.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-11.xlsx
@@ -622,6 +622,9 @@
       <c r="C21" t="str">
         <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -683,7 +686,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>030322039156050402015306010205205120200</v>
+        <v>0303220391560504020153060102052051202011</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-2-11.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-11.xlsx
@@ -688,6 +688,9 @@
       <c r="G2" t="str">
         <v>0303220391560504020153060102052051202011</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
